--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -1,144 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalarroy\surf-prediction-project\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF175B2-80EE-4D57-ADD3-C7DCAA22B6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Surf(m)</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>Primary Swell</t>
-  </si>
-  <si>
-    <t>Secondary Swell</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>2024-12-01</t>
-  </si>
-  <si>
-    <t>6am</t>
-  </si>
-  <si>
-    <t>0.6-0.9</t>
-  </si>
-  <si>
-    <t>POOR</t>
-  </si>
-  <si>
-    <t>0.8m 7s</t>
-  </si>
-  <si>
-    <t>0.1m 12s | 0.1m 9s</t>
-  </si>
-  <si>
-    <t>2442 kph</t>
-  </si>
-  <si>
-    <t>15ºc</t>
-  </si>
-  <si>
-    <t>1009mb</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Noon</t>
-  </si>
-  <si>
-    <t>0.3-0.6</t>
-  </si>
-  <si>
-    <t>0.6m 7s</t>
-  </si>
-  <si>
-    <t>0.1m 11s | 0.1m 10s</t>
-  </si>
-  <si>
-    <t>2435 kph</t>
-  </si>
-  <si>
-    <t>16ºc</t>
-  </si>
-  <si>
-    <t>1004mb</t>
-  </si>
-  <si>
-    <t>6pm</t>
-  </si>
-  <si>
-    <t>0.4m 7s</t>
-  </si>
-  <si>
-    <t>2228 kph</t>
-  </si>
-  <si>
-    <t>17ºc</t>
-  </si>
-  <si>
-    <t>1000mb</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -153,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -477,141 +420,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Surf(m)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Primary Swell</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary Swell</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.8m 7s</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.1m 12s | 0.1m 9s</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2442 kph</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>15ºc</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1009mb</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.3-0.6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.6m 7s</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.1m 11s | 0.1m 9s</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1223 kph</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16ºc</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1003mb</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.3-0.6</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.5m 7s</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1m 6s | 0.1m 11s</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2134 kph</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>999mb</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -1,37 +1,195 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalarroy\surf-prediction-project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03671E7-EDD0-4BE6-9B99-DF2E2753C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Surf(m)</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Primary Swell</t>
+  </si>
+  <si>
+    <t>Secondary Swell</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>2024-12-01</t>
+  </si>
+  <si>
+    <t>6am</t>
+  </si>
+  <si>
+    <t>0.6-0.9</t>
+  </si>
+  <si>
+    <t>POOR</t>
+  </si>
+  <si>
+    <t>0.8m 7s</t>
+  </si>
+  <si>
+    <t>0.1m 12s | 0.1m 9s</t>
+  </si>
+  <si>
+    <t>2442 kph</t>
+  </si>
+  <si>
+    <t>15ºc</t>
+  </si>
+  <si>
+    <t>1009mb</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Noon</t>
+  </si>
+  <si>
+    <t>0.3-0.6</t>
+  </si>
+  <si>
+    <t>POOR TO FAIR</t>
+  </si>
+  <si>
+    <t>0.6m 7s</t>
+  </si>
+  <si>
+    <t>0.1m 11s | 0.1m 9s</t>
+  </si>
+  <si>
+    <t>1223 kph</t>
+  </si>
+  <si>
+    <t>16ºc</t>
+  </si>
+  <si>
+    <t>1003mb</t>
+  </si>
+  <si>
+    <t>6pm</t>
+  </si>
+  <si>
+    <t>0.5m 7s</t>
+  </si>
+  <si>
+    <t>1m 6s | 0.1m 11s</t>
+  </si>
+  <si>
+    <t>2134 kph</t>
+  </si>
+  <si>
+    <t>18ºc</t>
+  </si>
+  <si>
+    <t>999mb</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>0.9-1.2</t>
+  </si>
+  <si>
+    <t>3.6m 8s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4m 8s | </t>
+  </si>
+  <si>
+    <t>3648 kph</t>
+  </si>
+  <si>
+    <t>13ºc</t>
+  </si>
+  <si>
+    <t>1006mb</t>
+  </si>
+  <si>
+    <t>1.2-1.5</t>
+  </si>
+  <si>
+    <t>4m 9s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3m 8s | </t>
+  </si>
+  <si>
+    <t>3546 kph</t>
+  </si>
+  <si>
+    <t>FAIR</t>
+  </si>
+  <si>
+    <t>3.6m 10s</t>
+  </si>
+  <si>
+    <t>3052 kph</t>
+  </si>
+  <si>
+    <t>12ºc</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +204,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,225 +528,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Surf(m)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Rating</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Primary Swell</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Secondary Swell</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Temperature</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pressure</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-12-01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>6am</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.6-0.9</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>POOR</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.8m 7s</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.1m 12s | 0.1m 9s</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2442 kph</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>15ºc</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1009mb</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-12-01</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Noon</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.3-0.6</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>POOR TO FAIR</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.6m 7s</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.1m 11s | 0.1m 9s</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1223 kph</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>16ºc</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1003mb</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-12-01</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6pm</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.3-0.6</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>POOR</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.5m 7s</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1m 6s | 0.1m 11s</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2134 kph</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>18ºc</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>999mb</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalarroy\surf-prediction-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03671E7-EDD0-4BE6-9B99-DF2E2753C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3B561F-DED2-4EA3-B963-444AAE797D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,51 @@
   </si>
   <si>
     <t>12ºc</t>
+  </si>
+  <si>
+    <t>2024-12-03</t>
+  </si>
+  <si>
+    <t>3.8m 9s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4m 10s | </t>
+  </si>
+  <si>
+    <t>2641 kph</t>
+  </si>
+  <si>
+    <t>8ºc</t>
+  </si>
+  <si>
+    <t>1011mb</t>
+  </si>
+  <si>
+    <t>1.2-1.8</t>
+  </si>
+  <si>
+    <t>3.9m 10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4m 11s | </t>
+  </si>
+  <si>
+    <t>3450 kph</t>
+  </si>
+  <si>
+    <t>17ºc</t>
+  </si>
+  <si>
+    <t>1013mb</t>
+  </si>
+  <si>
+    <t>3.1m 10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3m 10s | </t>
+  </si>
+  <si>
+    <t>2431 kph</t>
   </si>
 </sst>
 </file>
@@ -529,13 +574,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -762,6 +812,102 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,6 +1109,162 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FAIR</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.2m 10s</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.8m 8s | 0.8m 6s</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>57 kph</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>15ºc</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1007mb</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.6-1.1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FAIR</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1m 10s</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.8m 8s | 0.7m 6s</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1524 kph</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>21ºc</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1006mb</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.9m 10s</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.7m 4s | 0.7m 8s</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1516 kph</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1005mb</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1265,6 +1265,162 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FAIR</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.6m 10s</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.7m 11s | 0.7m 6s</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1214 kph</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>15ºc</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1004mb</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.6m 6s</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.7m 9s | 1m 9s</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2021 kph</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>15ºc</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1006mb</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.9-1.4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2m 9s</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.7m 9s | 0.4m 5s</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2831 kph</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>14ºc</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1007mb</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1421,6 +1421,162 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.9-1.4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.3m 8s</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.6m 11s | 0.2m 6s</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2842 kph</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>11ºc</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1015mb</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.9-1.4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.4m 7s</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.6m 10s | 0.2m 8s</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3441 kph</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>15ºc</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1016mb</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3m 8s</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2m 8s | </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>3749 kph</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>16ºc</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1015mb</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1577,6 +1577,162 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-12-08</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1.2-2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FAIR</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2.9m 10s</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.3m 8s | </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1319 kph</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>9ºc</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1020mb</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-12-08</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.2-1.5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2.5m 10s</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.3m 8s | </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1616 kph</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>14ºc</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1020mb</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-12-08</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.9-1.4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2.1m 9s</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2m 8s | </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2020 kph</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>13ºc</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1018mb</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1733,6 +1733,162 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1m 9s</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.7m 8s | 0.2m 8s</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2438 kph</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>9ºc</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1018mb</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1.1m 8s</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.2m 7s | 1.1m 5s</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1520 kph</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>19ºc</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1016mb</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VERY POOR</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1m 9s</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.8m 4s | 0.4m 5s</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3543 kph</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1013mb</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1889,6 +1889,162 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1m 9s</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1m 5s | </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1731 kph</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>13ºc</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1015mb</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1m 9s</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.1m 9s | 0.2m 7s</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1421 kph</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>23ºc</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1014mb</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.9m 8s</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.8m 4s | 0.2m 9s</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2940 kph</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1012mb</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,6 +2045,162 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.9m 8s</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.8m 4s | 0.3m 8s</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1012 kph</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>15ºc</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1013mb</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.3-0.6</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.8m 8s</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.6m 4s | 0.3m 8s</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1418 kph</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>23ºc</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1013mb</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.3-0.6</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.6m 7s</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.7m 4s | 0.3m 8s</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1826 kph</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>19ºc</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1011mb</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2201,6 +2201,162 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.6m 7s</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.1m 5s | 0.1m 15s</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2037 kph</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1012mb</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VERY POOR</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.6m 7s</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.5m 6s | 0.1m 16s</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>3746 kph</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>20ºc</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1010mb</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.9-1.4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>VERY POOR</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2.2m 7s</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.4m 6s | 0.2m 9s</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>4164 kph</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1008mb</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2357,6 +2357,162 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FAIR</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2m 7s</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.3m 8s | 0.1m 14s</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>55 kph</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>17ºc</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1010mb</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.8m 7s</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.2m 7s | 0.1m 13s</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1722 kph</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>17ºc</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1011mb</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.6-1.1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1.6m 8s</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2m 7s | </t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1415 kph</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1010mb</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2513,6 +2513,162 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.6-1.1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1.5m 8s</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.1m 7s | 0.1m 6s</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1318 kph</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>17ºc</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1012mb</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1.6m 10s</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.1m 10s | 0.1m 7s</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2122 kph</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1014mb</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.9-1.4</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1.7m 10s</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1m 9s | </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2328 kph</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>16ºc</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1014mb</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2669,6 +2669,162 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.9-1.4</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1.4m 10s</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1m 9s | 0.1m 8s</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1927 kph</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>14ºc</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1015mb</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.9-1.4</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1.3m 10s</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.1m 9s | 0.1m 8s</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2328 kph</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>17ºc</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1017mb</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.9-1.4</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1.7m 9s</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.6m 10s | 0.2m 6s</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2023 kph</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>16ºc</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1016mb</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2825,6 +2825,162 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FAIR</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1.7m 10s</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1m 5s | </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1114 kph</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>13ºc</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1017mb</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1.6m 10s</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.4m 9s | 0.1m 5s</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1920 kph</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>17ºc</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1019mb</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.9-1.4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1.7m 10s</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1m 5s | </t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1718 kph</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>16ºc</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1018mb</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2981,6 +2981,162 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1.2-1.8</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>FAIR</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2m 11s</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> | </t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1114 kph</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>14ºc</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1021mb</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1.2-1.5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1.8m 11s</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> | </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2222 kph</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>17ºc</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1020mb</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1.2-1.5</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1.7m 10s</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> | </t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2738 kph</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1017mb</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3137,6 +3137,162 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.9-1.4</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1.4m 10s</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1m 5s | </t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2144 kph</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>16ºc</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1015mb</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1.3m 10s</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.1m 12s | 1m 5s</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1922 kph</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>24ºc</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1013mb</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>VERY POOR</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1.1m 9s</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.6m 6s | 0.1m 11s</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>3349 kph</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>21ºc</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1008mb</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3293,6 +3293,162 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.6-1.1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FAIR</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1m 9s</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.5m 3s | 0.8m 6s</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>811 kph</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>17ºc</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1010mb</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1m 9s</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.6m 5s | 0.4m 4s</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1515 kph</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>22ºc</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1010mb</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.9m 9s</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.7m 6s | 0.2m 9s</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2027 kph</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>19ºc</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1005mb</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3449,6 +3449,162 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.7m 8s</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.1m 6s | 0.3m 9s</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1840 kph</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1001mb</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.6m 8s</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.6m 6s | 2.3m 6s</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>4053 kph</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>20ºc</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1007mb</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.4m 8s</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.3m 8s | 3.4m 8s</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>4158 kph</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>17ºc</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1011mb</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3605,6 +3605,162 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>FAIR</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2.1m 9s</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.2m 8s | 0.2m 8s</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1727 kph</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>12ºc</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1016mb</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.6-1.1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2.1m 9s</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.3m 8s | </t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2121 kph</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>17ºc</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1018mb</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1.8m 9s</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.3m 8s | </t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2424 kph</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>15ºc</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1017mb</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3761,6 +3761,162 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1.5m 9s</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.2m 9s | 0.3m 8s</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2952 kph</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>12ºc</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1018mb</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1.4m 10s</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.4m 8s | 0.2m 9s</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2635 kph</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>24ºc</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1014mb</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1.3m 9s</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.3m 8s | 0.1m 8s</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2735 kph</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1015mb</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3917,6 +3917,162 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0.6-0.9</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.2m 9s</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.3m 8s | 0.5m 6s</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1218 kph</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>14ºc</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1014mb</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0.3-0.6</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1.1m 8s</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.3m 7s | 0.5m 3s</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1929 kph</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>24ºc</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1012mb</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0.3-0.6</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.8m 8s</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.2m 10s | 0.3m 7s</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>3042 kph</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>26ºc</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1008mb</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4073,6 +4073,162 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.6-1.1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.7m 10s</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2m 8s | 0.5m 8s</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2735 kph</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>15ºc</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1016mb</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0.6-1.1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>VERY POOR</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2.1m 8s</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.5m 8s | </t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>3337 kph</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>17ºc</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1017mb</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>VERY POOR</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2m 7s</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.5m 8s | </t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>3542 kph</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>16ºc</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1016mb</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4229,6 +4229,162 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.6-1.1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1.4m 6s</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.6m 9s | 0.7m 8s</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2230 kph</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>15ºc</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1015mb</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0.9-1.2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1.3m 6s</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.1m 9s | 0.6m 7s</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2020 kph</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1015mb</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0.9-1.4</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1.6m 9s</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.8m 6s | 0.6m 9s</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2124 kph</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1014mb</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pg_scrap_surfline.xlsx
+++ b/data/pg_scrap_surfline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4385,6 +4385,162 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>6am</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1.2-1.5</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>FAIR</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1.8m 9s</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> | </t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1217 kph</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>15ºc</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1019mb</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Noon</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1.2-1.5</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1.7m 9s</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.1m 10s | </t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1616 kph</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>19ºc</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1020mb</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>6pm</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1.2-1.5</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>POOR TO FAIR</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1.6m 8s</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.1m 10s | 0.2m 9s</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>1717 kph</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>18ºc</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1019mb</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
